--- a/ESPN sports website/IPL/Kolkata Knight Riders/Sunil Narine.xlsx
+++ b/ESPN sports website/IPL/Kolkata Knight Riders/Sunil Narine.xlsx
@@ -445,31 +445,31 @@
         <v>Sunil Narine</v>
       </c>
       <c r="C2" t="str">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D2" t="str">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="str">
-        <v>-</v>
+        <v>183.33</v>
       </c>
       <c r="H2" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I2" t="str">
-        <v>Brabourne</v>
+        <v>Pune</v>
       </c>
       <c r="J2" t="str">
-        <v>April 18, 2022</v>
+        <v>May 07, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Royals won by 7 runs</v>
+        <v>Super Giants won by 75 runs</v>
       </c>
     </row>
     <row r="3">
@@ -480,31 +480,31 @@
         <v>Sunil Narine</v>
       </c>
       <c r="C3" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>200.00</v>
+        <v>-</v>
       </c>
       <c r="H3" t="str">
-        <v>Delhi Capitals</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I3" t="str">
         <v>Brabourne</v>
       </c>
       <c r="J3" t="str">
-        <v>April 10, 2022</v>
+        <v>April 18, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Capitals won by 44 runs</v>
+        <v>Royals won by 7 runs</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Sunil Narine</v>
       </c>
       <c r="C4" t="str">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D4" t="str">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4" t="str">
         <v>0</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="str">
         <v>300.00</v>
       </c>
       <c r="H4" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I4" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J4" t="str">
-        <v>April 15, 2022</v>
+        <v>May 18, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Sunrisers won by 7 wickets (with 13 balls remaining)</v>
+        <v>Super Giants won by 2 runs</v>
       </c>
     </row>
     <row r="5">
@@ -585,31 +585,31 @@
         <v>Sunil Narine</v>
       </c>
       <c r="C6" t="str">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D6" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="str">
         <v>0</v>
       </c>
       <c r="F6" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="str">
-        <v>0.00</v>
+        <v>300.00</v>
       </c>
       <c r="H6" t="str">
-        <v>Delhi Capitals</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I6" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J6" t="str">
-        <v>April 28, 2022</v>
+        <v>April 15, 2022</v>
       </c>
       <c r="K6" t="str">
-        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
+        <v>Sunrisers won by 7 wickets (with 13 balls remaining)</v>
       </c>
     </row>
     <row r="7">
@@ -620,31 +620,31 @@
         <v>Sunil Narine</v>
       </c>
       <c r="C7" t="str">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D7" t="str">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E7" t="str">
         <v>1</v>
       </c>
       <c r="F7" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>150.00</v>
+        <v>200.00</v>
       </c>
       <c r="H7" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I7" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J7" t="str">
-        <v>March 30, 2022</v>
+        <v>April 10, 2022</v>
       </c>
       <c r="K7" t="str">
-        <v>RCB won by 3 wickets (with 4 balls remaining)</v>
+        <v>Capitals won by 44 runs</v>
       </c>
     </row>
     <row r="8">
@@ -655,31 +655,31 @@
         <v>Sunil Narine</v>
       </c>
       <c r="C8" t="str">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D8" t="str">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E8" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="str">
-        <v>50.00</v>
+        <v>150.00</v>
       </c>
       <c r="H8" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I8" t="str">
-        <v>Pune</v>
+        <v>DY Patil</v>
       </c>
       <c r="J8" t="str">
-        <v>May 14, 2022</v>
+        <v>March 30, 2022</v>
       </c>
       <c r="K8" t="str">
-        <v>KKR won by 54 runs</v>
+        <v>RCB won by 3 wickets (with 4 balls remaining)</v>
       </c>
     </row>
     <row r="9">
@@ -725,31 +725,31 @@
         <v>Sunil Narine</v>
       </c>
       <c r="C10" t="str">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D10" t="str">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E10" t="str">
         <v>0</v>
       </c>
       <c r="F10" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G10" t="str">
-        <v>300.00</v>
+        <v>0.00</v>
       </c>
       <c r="H10" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Delhi Capitals</v>
       </c>
       <c r="I10" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J10" t="str">
-        <v>May 18, 2022</v>
+        <v>April 28, 2022</v>
       </c>
       <c r="K10" t="str">
-        <v>Super Giants won by 2 runs</v>
+        <v>Capitals won by 4 wickets (with 6 balls remaining)</v>
       </c>
     </row>
     <row r="11">
@@ -760,31 +760,31 @@
         <v>Sunil Narine</v>
       </c>
       <c r="C11" t="str">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D11" t="str">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E11" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="str">
-        <v>183.33</v>
+        <v>50.00</v>
       </c>
       <c r="H11" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I11" t="str">
         <v>Pune</v>
       </c>
       <c r="J11" t="str">
-        <v>May 07, 2022</v>
+        <v>May 14, 2022</v>
       </c>
       <c r="K11" t="str">
-        <v>Super Giants won by 75 runs</v>
+        <v>KKR won by 54 runs</v>
       </c>
     </row>
   </sheetData>
